--- a/output/5 - Product List in Sigma.xlsx
+++ b/output/5 - Product List in Sigma.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
@@ -1980,6 +1980,5522 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>PP ALMOND</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>PP CHANNA DHALL</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>PP CORIANDER</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>PP ALMOND</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>PP CHANNA DHALL</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>PP ALMOND</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>PP CHANNA DHALL</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>PP CORIANDER</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>PP ALMOND</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>PP CHANNA DHALL</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>PP CORIANDER</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SHRISA!l AGENCIES</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>PP ALMOND</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>PP CHANNA DHALL</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>PP ALMOND</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>PP CHANNA DHALL</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>PP ALMOND</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>PP CORIANDER</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>PP GUNDU CHILLI</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>PP CORIANDER</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>PP DRIED GRAPES</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>29-06-2024</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>JR242552761738</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>SHRISAI AGENCIES</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
